--- a/StoryTools/example/Go.xlsx
+++ b/StoryTools/example/Go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12287\Project\StoryTools\StoryTools\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CAAF35-E0A0-4E65-BBFF-69AAB50A550A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1844AB6D-B9A8-4705-89E6-E4EAC2694237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>vaneplus</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E9245D96-E146-49B6-A788-F68BB0027234}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E9245D96-E146-49B6-A788-F68BB0027234}">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{88A1290D-4D3D-4246-9414-0027FC4F106A}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{88A1290D-4D3D-4246-9414-0027FC4F106A}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="42">
   <si>
     <t>说话者</t>
   </si>
@@ -176,20 +176,6 @@
     <t>怎么？你总算处理完手里的事，准备去码头了？</t>
   </si>
   <si>
-    <t>Npc_Xavier_Selection_Content_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前往码头区。</t>
-  </si>
-  <si>
-    <t>Npc_Xavier_Selection_Content_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时先不去了。</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +185,45 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textline</t>
+  </si>
+  <si>
+    <t>##map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +331,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,6 +349,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="LogContent" xfId="1" xr:uid="{2E650DE5-3033-4E73-B2FA-4116B742FEC5}"/>
@@ -619,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,59 +665,65 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -699,18 +732,24 @@
         <v>9</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -733,48 +772,60 @@
       <c r="J3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -783,107 +834,310 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>60</v>
       </c>
-      <c r="G6" s="6">
+      <c r="I6" s="6">
         <v>15</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4">
+        <v>60</v>
+      </c>
+      <c r="I7" s="6">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="4">
+        <v>60</v>
+      </c>
+      <c r="I8" s="6">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4">
+        <v>60</v>
+      </c>
+      <c r="I9" s="6">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4">
+        <v>60</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4">
+        <v>60</v>
+      </c>
+      <c r="I11" s="6">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="4">
+        <v>60</v>
+      </c>
+      <c r="I12" s="6">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4">
+        <v>60</v>
+      </c>
+      <c r="I13" s="6">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D8">
+  <conditionalFormatting sqref="F1:F13">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
